--- a/api/application/templates/penumpang.xlsx
+++ b/api/application/templates/penumpang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\len\asdp\api\application\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E9933E-6B3E-4548-A22D-BC3E488B9369}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEE8370-B419-4E08-B858-7CF3AF271A76}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4590" xr2:uid="{4CB03BB4-4142-45FB-883B-8E70CB295A8C}"/>
   </bookViews>
@@ -470,7 +470,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G1:G1048576"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,7 +564,7 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="90" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>